--- a/templates/scoretable_template.xlsx
+++ b/templates/scoretable_template.xlsx
@@ -1286,172 +1286,72 @@
   <sheetPr/>
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="F4:I7 K5:U7 X5:Z7 AB5:AL7 AP6:AQ6 AT6:AU6 AR7:AS7 B9:AU32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20" customHeight="1"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:47">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>47</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:47">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:47">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:47">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1472,9 +1372,7 @@
       <c r="AU4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:47">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1519,9 +1417,7 @@
       <c r="AU5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:47">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1565,9 +1461,7 @@
       <c r="AU6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:47">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1609,14 +1503,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:47">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:47">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1665,9 +1555,7 @@
       <c r="AU9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:47">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1716,9 +1604,7 @@
       <c r="AU10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:47">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1767,9 +1653,7 @@
       <c r="AU11" s="23"/>
     </row>
     <row r="12" customHeight="1" spans="1:47">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1818,14 +1702,10 @@
       <c r="AU12" s="24"/>
     </row>
     <row r="13" customHeight="1" spans="1:47">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:47">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1874,9 +1754,7 @@
       <c r="AU14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:47">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1925,9 +1803,7 @@
       <c r="AU15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:47">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1976,9 +1852,7 @@
       <c r="AU16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:47">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -2027,14 +1901,10 @@
       <c r="AU17" s="24"/>
     </row>
     <row r="18" customHeight="1" spans="1:47">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:47">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2083,9 +1953,7 @@
       <c r="AU19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:47">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2134,9 +2002,7 @@
       <c r="AU20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:47">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2185,9 +2051,7 @@
       <c r="AU21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:47">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2236,14 +2100,10 @@
       <c r="AU22" s="24"/>
     </row>
     <row r="23" customHeight="1" spans="1:47">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" customHeight="1" spans="1:47">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -2292,9 +2152,7 @@
       <c r="AU24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:47">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2343,9 +2201,7 @@
       <c r="AU25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:47">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -2394,9 +2250,7 @@
       <c r="AU26" s="23"/>
     </row>
     <row r="27" customHeight="1" spans="1:47">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2445,14 +2299,10 @@
       <c r="AU27" s="24"/>
     </row>
     <row r="28" customHeight="1" spans="1:47">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" customHeight="1" spans="1:47">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -2501,9 +2351,7 @@
       <c r="AU29" s="21"/>
     </row>
     <row r="30" customHeight="1" spans="1:47">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2552,9 +2400,7 @@
       <c r="AU30" s="22"/>
     </row>
     <row r="31" customHeight="1" spans="1:47">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2603,9 +2449,7 @@
       <c r="AU31" s="23"/>
     </row>
     <row r="32" customHeight="1" spans="1:47">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -2654,14 +2498,10 @@
       <c r="AU32" s="24"/>
     </row>
     <row r="33" customHeight="1" spans="1:44">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customHeight="1" spans="1:44">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -2676,9 +2516,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:44">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
